--- a/src/main/resources/Buffalocart_TestData.xlsx
+++ b/src/main/resources/Buffalocart_TestData.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Login" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="UserManagement" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -29,30 +30,55 @@
   </si>
   <si>
     <t>archa@10</t>
+  </si>
+  <si>
+    <t>UserManagmentSubmodules</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Sales Commission Agents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -71,6 +97,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -80,6 +109,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -286,6 +319,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="29.43"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -296,10 +332,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -309,6 +345,44 @@
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="31.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Buffalocart_TestData.xlsx
+++ b/src/main/resources/Buffalocart_TestData.xlsx
@@ -5,6 +5,9 @@
   <sheets>
     <sheet state="visible" name="Login" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="UserManagement" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="AddUser" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="EditUser" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="SalesCommsionAgent" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>Username</t>
   </si>
@@ -32,6 +35,12 @@
     <t>archa@10</t>
   </si>
   <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>felix</t>
+  </si>
+  <si>
     <t>UserManagmentSubmodules</t>
   </si>
   <si>
@@ -42,13 +51,97 @@
   </si>
   <si>
     <t>Sales Commission Agents</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Confirmpassword</t>
+  </si>
+  <si>
+    <t>sales commision percentage</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Mathew</t>
+  </si>
+  <si>
+    <t>felixmathew@gmail.com</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Mathew D</t>
+  </si>
+  <si>
+    <t>updated lastName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathew </t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>contactNo</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>salescommisionpercentage</t>
+  </si>
+  <si>
+    <t>Vinod</t>
+  </si>
+  <si>
+    <t>Micheal</t>
+  </si>
+  <si>
+    <t>vinod@gmail.com</t>
+  </si>
+  <si>
+    <t>Kerala</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0102"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -56,15 +149,21 @@
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <sz val="9.0"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
     </font>
   </fonts>
   <fills count="3">
@@ -87,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -97,8 +196,19 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -113,6 +223,18 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -347,6 +469,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -367,22 +497,304 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="34.71"/>
+    <col customWidth="1" min="9" max="9" width="38.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="G6" s="7"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7.865436788E9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Buffalocart_TestData.xlsx
+++ b/src/main/resources/Buffalocart_TestData.xlsx
@@ -8,6 +8,7 @@
     <sheet state="visible" name="AddUser" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="EditUser" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="SalesCommsionAgent" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Roles" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>Username</t>
   </si>
@@ -35,7 +36,7 @@
     <t>archa@10</t>
   </si>
   <si>
-    <t>0102</t>
+    <t>0216</t>
   </si>
   <si>
     <t>felix</t>
@@ -77,30 +78,36 @@
     <t>Mr</t>
   </si>
   <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Mathew</t>
+  </si>
+  <si>
+    <t>eric@gmail.com</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>eric</t>
+  </si>
+  <si>
+    <t>Mathew D</t>
+  </si>
+  <si>
+    <t>updated lastName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathew </t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>Felix</t>
   </si>
   <si>
-    <t>Mathew</t>
-  </si>
-  <si>
-    <t>felixmathew@gmail.com</t>
-  </si>
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <t>Mathew D</t>
-  </si>
-  <si>
-    <t>updated lastName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mathew </t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>prefix</t>
   </si>
   <si>
@@ -122,16 +129,22 @@
     <t>salescommisionpercentage</t>
   </si>
   <si>
-    <t>Vinod</t>
+    <t>Alen</t>
   </si>
   <si>
     <t>Micheal</t>
   </si>
   <si>
-    <t>vinod@gmail.com</t>
+    <t>alen@gmail.com</t>
   </si>
   <si>
     <t>Kerala</t>
+  </si>
+  <si>
+    <t>Micheal R</t>
+  </si>
+  <si>
+    <t>ChiefAccountant</t>
   </si>
 </sst>
 </file>
@@ -141,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0102"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -160,6 +173,9 @@
     <font>
       <sz val="9.0"/>
       <color rgb="FF202124"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -186,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -206,8 +222,14 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -235,6 +257,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -584,7 +610,7 @@
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -597,7 +623,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -613,13 +639,13 @@
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -635,8 +661,11 @@
         <v>6.0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="D4" s="8"/>
+    </row>
     <row r="6">
-      <c r="G6" s="7"/>
+      <c r="G6" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -660,11 +689,11 @@
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -689,23 +718,23 @@
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>26</v>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>7</v>
@@ -733,26 +762,26 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>34</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -778,23 +807,71 @@
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="E2" s="2">
         <v>7.865436788E9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>8.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7.865436788E9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2">
+        <v>8.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Buffalocart_TestData.xlsx
+++ b/src/main/resources/Buffalocart_TestData.xlsx
@@ -9,6 +9,7 @@
     <sheet state="visible" name="EditUser" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="SalesCommsionAgent" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="Roles" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="UpdateRoles" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
   <si>
     <t>Username</t>
   </si>
@@ -78,73 +79,142 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>Eric</t>
+    <t>Nishil</t>
+  </si>
+  <si>
+    <t>Babu</t>
+  </si>
+  <si>
+    <t>nishilbabu@gmail.com</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>nishil21</t>
+  </si>
+  <si>
+    <t>vinod@123</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>adybabu11@gmail.com</t>
+  </si>
+  <si>
+    <t>aditya78</t>
+  </si>
+  <si>
+    <t>ram@456</t>
+  </si>
+  <si>
+    <t>Mr Aditya Babu D</t>
+  </si>
+  <si>
+    <t>updated lastName</t>
+  </si>
+  <si>
+    <t>Alen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathew </t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>alenmathew@gmail.com</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>contactNo</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>salescommisionpercentage</t>
+  </si>
+  <si>
+    <t>Updated value</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Hari</t>
   </si>
   <si>
     <t>Mathew</t>
   </si>
   <si>
-    <t>eric@gmail.com</t>
-  </si>
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <t>eric</t>
-  </si>
-  <si>
-    <t>Mathew D</t>
-  </si>
-  <si>
-    <t>updated lastName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mathew </t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Felix</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>contactNo</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>salescommisionpercentage</t>
-  </si>
-  <si>
-    <t>Alen</t>
-  </si>
-  <si>
-    <t>Micheal</t>
-  </si>
-  <si>
-    <t>alen@gmail.com</t>
+    <t>harimathew@gmail.com</t>
   </si>
   <si>
     <t>Kerala</t>
   </si>
   <si>
-    <t>Micheal R</t>
-  </si>
-  <si>
-    <t>ChiefAccountant</t>
+    <t>Add sales agent</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>rahul@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R</t>
+  </si>
+  <si>
+    <t>update sales agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Babu</t>
+  </si>
+  <si>
+    <t>adi@gmail.com</t>
+  </si>
+  <si>
+    <t>delete sales agent</t>
+  </si>
+  <si>
+    <t>Associate Tester</t>
+  </si>
+  <si>
+    <t>Super senior Engineer</t>
+  </si>
+  <si>
+    <t>Managing officer</t>
+  </si>
+  <si>
+    <t>Jinson</t>
+  </si>
+  <si>
+    <t>jinson@gmail.com</t>
+  </si>
+  <si>
+    <t>senior Engineer</t>
+  </si>
+  <si>
+    <t>jinson21</t>
   </si>
 </sst>
 </file>
@@ -169,13 +239,14 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <sz val="9.0"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -212,21 +283,21 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -261,6 +332,10 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -613,23 +688,23 @@
       <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
+      <c r="G2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="I2" s="2">
         <v>6.0</v>
@@ -640,29 +715,39 @@
         <v>19</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F3" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="I3" s="2">
         <v>6.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="D4" s="8"/>
+      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="F4" s="3"/>
+      <c r="I4" s="2">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="G6" s="9"/>
@@ -693,7 +778,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -718,23 +803,23 @@
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>7</v>
@@ -760,31 +845,40 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="23.43"/>
+    <col customWidth="1" min="7" max="7" width="27.29"/>
+    <col customWidth="1" min="9" max="9" width="21.14"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -808,46 +902,87 @@
         <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="E2" s="2">
         <v>7.865436788E9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2">
         <v>8.0</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2">
-        <v>7.865436788E9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="2">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="6">
+        <v>6.754387231E9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="6">
         <v>8.0</v>
       </c>
+      <c r="H3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9.633419763E9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -863,15 +998,104 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.43"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="9" max="9" width="29.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Buffalocart_TestData.xlsx
+++ b/src/main/resources/Buffalocart_TestData.xlsx
@@ -7,9 +7,11 @@
     <sheet state="visible" name="UserManagement" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="AddUser" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="EditUser" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="SalesCommsionAgent" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Roles" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="UpdateRoles" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="DeleteUser" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="SalesCommsionAgent" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Roles" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="UpdateRoles" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="ViewUser" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
   <si>
     <t>Username</t>
   </si>
@@ -28,9 +30,6 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>archanaprasannan2014@gmail.com</t>
   </si>
   <si>
@@ -79,117 +78,141 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>Nishil</t>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>philip@gmail.com</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>philipr51</t>
+  </si>
+  <si>
+    <t>vinod@123</t>
+  </si>
+  <si>
+    <t>usersearch</t>
+  </si>
+  <si>
+    <t>Arun</t>
   </si>
   <si>
     <t>Babu</t>
   </si>
   <si>
-    <t>nishilbabu@gmail.com</t>
-  </si>
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <t>nishil21</t>
-  </si>
-  <si>
-    <t>vinod@123</t>
+    <t>arunbabu11@gmail.com</t>
+  </si>
+  <si>
+    <t>arunbabu58</t>
+  </si>
+  <si>
+    <t>ram@456</t>
+  </si>
+  <si>
+    <t>adduser</t>
+  </si>
+  <si>
+    <t>Mr Abhijith vinod D</t>
+  </si>
+  <si>
+    <t>updated lastName</t>
+  </si>
+  <si>
+    <t>Amal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathew </t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>alenmathew@gmail.com</t>
+  </si>
+  <si>
+    <t>amal21</t>
+  </si>
+  <si>
+    <t>Mr Amal Mathew D</t>
+  </si>
+  <si>
+    <t>Jeffin</t>
+  </si>
+  <si>
+    <t>jefin07</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>contactNo</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>salescommisionpercentage</t>
+  </si>
+  <si>
+    <t>Updated value</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Adhi</t>
+  </si>
+  <si>
+    <t>Mathew</t>
+  </si>
+  <si>
+    <t>adhimathew@gmail.com</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Add sales agent</t>
+  </si>
+  <si>
+    <t>Darin</t>
+  </si>
+  <si>
+    <t>darin@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  R</t>
+  </si>
+  <si>
+    <t>update sales agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr </t>
   </si>
   <si>
     <t>Aditya</t>
   </si>
   <si>
-    <t>adybabu11@gmail.com</t>
-  </si>
-  <si>
-    <t>aditya78</t>
-  </si>
-  <si>
-    <t>ram@456</t>
-  </si>
-  <si>
-    <t>Mr Aditya Babu D</t>
-  </si>
-  <si>
-    <t>updated lastName</t>
-  </si>
-  <si>
-    <t>Alen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mathew </t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>alenmathew@gmail.com</t>
-  </si>
-  <si>
-    <t>Felix</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>contactNo</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>salescommisionpercentage</t>
-  </si>
-  <si>
-    <t>Updated value</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Hari</t>
-  </si>
-  <si>
-    <t>Mathew</t>
-  </si>
-  <si>
-    <t>harimathew@gmail.com</t>
-  </si>
-  <si>
-    <t>Kerala</t>
-  </si>
-  <si>
-    <t>Add sales agent</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>rahul@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  R</t>
-  </si>
-  <si>
-    <t>update sales agent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Babu</t>
   </si>
   <si>
+    <t>aditya@gmail.com</t>
+  </si>
+  <si>
     <t>adi@gmail.com</t>
   </si>
   <si>
@@ -205,6 +228,9 @@
     <t>Managing officer</t>
   </si>
   <si>
+    <t>Auditor</t>
+  </si>
+  <si>
     <t>Jinson</t>
   </si>
   <si>
@@ -214,7 +240,22 @@
     <t>senior Engineer</t>
   </si>
   <si>
-    <t>jinson21</t>
+    <t>jinson22</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>felix mathew</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> felixmathew@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0234</t>
   </si>
 </sst>
 </file>
@@ -244,13 +285,15 @@
       <color rgb="FF202124"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
-      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF333333"/>
+      <name val="&quot;Source Sans Pro&quot;"/>
     </font>
   </fonts>
   <fills count="3">
@@ -273,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -283,6 +326,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -290,17 +336,23 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -336,6 +388,14 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -558,24 +618,24 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="3">
+        <v>123456.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -598,22 +658,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+    <row r="3">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+    <row r="4">
+      <c r="A4" s="5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -637,19 +697,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -658,93 +718,99 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2">
         <v>6.0</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>21</v>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" s="2">
         <v>6.0</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
+      <c r="A4" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="4"/>
       <c r="I4" s="2">
         <v>6.0</v>
       </c>
@@ -769,22 +835,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -793,42 +859,47 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2" s="2">
         <v>6.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -837,6 +908,79 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2">
+        <v>6.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -853,132 +997,132 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2">
         <v>7.865436788E9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2">
         <v>8.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>21</v>
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="6">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2">
         <v>6.754387231E9</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="2">
         <v>8.0</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>54</v>
+      <c r="H3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2">
         <v>9.633419763E9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2">
         <v>8.0</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -989,7 +1133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1004,22 +1148,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>59</v>
+      <c r="A2" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>60</v>
+      <c r="A3" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>61</v>
+      <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1027,7 +1176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1042,19 +1191,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -1063,39 +1212,104 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>47</v>
+        <v>70</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2">
         <v>6.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Buffalocart_TestData.xlsx
+++ b/src/main/resources/Buffalocart_TestData.xlsx
@@ -90,7 +90,7 @@
     <t>Staff</t>
   </si>
   <si>
-    <t>philipr51</t>
+    <t>philipr57</t>
   </si>
   <si>
     <t>vinod@123</t>
@@ -108,7 +108,7 @@
     <t>arunbabu11@gmail.com</t>
   </si>
   <si>
-    <t>arunbabu58</t>
+    <t>arunbabu64</t>
   </si>
   <si>
     <t>ram@456</t>
@@ -135,7 +135,7 @@
     <t>alenmathew@gmail.com</t>
   </si>
   <si>
-    <t>amal21</t>
+    <t>amal32</t>
   </si>
   <si>
     <t>Mr Amal Mathew D</t>
@@ -144,7 +144,7 @@
     <t>Jeffin</t>
   </si>
   <si>
-    <t>jefin07</t>
+    <t>jefin15</t>
   </si>
   <si>
     <t>prefix</t>
